--- a/leetcode_db.xlsx
+++ b/leetcode_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36323E25-9B48-451B-A328-3FB08E208545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2074B055-ACCC-4F43-8F18-D975FD799B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF86E260-3C89-4952-8307-E91E25D77E54}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>Find the Difference</t>
   </si>
@@ -229,13 +229,73 @@
   </si>
   <si>
     <t xml:space="preserve"> Strong Password Checker II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/three-consecutive-odds</t>
+  </si>
+  <si>
+    <t>Three Consecutive Odds</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/finding-3-digit-even-numbers</t>
+  </si>
+  <si>
+    <t>finding-3-digit-even-numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock</t>
+  </si>
+  <si>
+    <t>best-time-to-buy-and-sell-stock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/actors-and-directors-who-cooperated-at-least-three-times</t>
+  </si>
+  <si>
+    <t>actors-and-directors-who-cooperated-at-least-three-times</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones</t>
+  </si>
+  <si>
+    <t>max-consecutive-ones</t>
+  </si>
+  <si>
+    <t>max-consecutive-ones-III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones-iii</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-unequal-adjacent-groups-subsequence-i</t>
+  </si>
+  <si>
+    <t>longest-unequal-adjacent-groups-subsequence-i</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sales-person</t>
+  </si>
+  <si>
+    <t>sales-person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL  </t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>language</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,13 +311,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -273,9 +355,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -591,550 +687,813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ACDA02-1675-4A48-BE6A-C1394834C3CA}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="F1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B2" s="1">
         <v>389</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B3" s="4">
         <v>88</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B4" s="1">
         <v>175</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B5" s="1">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B6" s="1">
         <v>242</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B7" s="1">
         <v>596</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B8" s="1">
         <v>1128</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="F9" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B10" s="1">
         <v>1693</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B11" s="1">
         <v>2379</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="F12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B13" s="1">
         <v>511</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B14" s="1">
         <v>586</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B15" s="1">
         <v>1848</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B16" s="1">
         <v>1390</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E16" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="F16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B17" s="1">
         <v>1077</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B18" s="1">
         <v>620</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B19" s="1">
         <v>1295</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B20" s="1">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E20" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="F20" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B21" s="1">
         <v>185</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E21" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="F21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B22" s="1">
         <v>183</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B23" s="1">
         <v>178</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E23" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B24" s="1">
         <v>2535</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B25" s="1">
         <v>181</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B26" s="1">
         <v>66</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B27" s="1">
         <v>177</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E27" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="F27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B29" s="1">
         <v>2176</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B30" s="1">
         <v>176</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E30" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
+      <c r="B31" s="2">
+        <v>2299</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="B32" s="1">
-        <v>2299</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
+        <v>1550</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2094</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>121</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1050</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>485</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2900</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>607</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D32" r:id="rId1" xr:uid="{FED7B22F-0CBF-4B7A-B70D-65E45450C72A}"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{FED7B22F-0CBF-4B7A-B70D-65E45450C72A}"/>
+    <hyperlink ref="C32" r:id="rId2" display="https://leetcode.com/problems/three-consecutive-odds/" xr:uid="{5EC1D3AD-4D6E-4F26-B71A-9E89EB8FBC32}"/>
+    <hyperlink ref="D33" r:id="rId3" xr:uid="{11A175BE-6210-4226-8079-5F839C1B5E62}"/>
+    <hyperlink ref="D34" r:id="rId4" xr:uid="{C3D6CCFF-30A7-42C5-B322-F95B7F7AA0E3}"/>
+    <hyperlink ref="D35" r:id="rId5" xr:uid="{FF44537B-0061-4DB4-9841-02A53B87516A}"/>
+    <hyperlink ref="D36" r:id="rId6" xr:uid="{09187625-D0E4-43A0-8567-92946349EB05}"/>
+    <hyperlink ref="D38" r:id="rId7" xr:uid="{BB3BBA01-0689-48F6-BDD4-0F393C8F7150}"/>
+    <hyperlink ref="D39" r:id="rId8" xr:uid="{B53051B8-56D3-4473-B168-F938B298E132}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/leetcode_db.xlsx
+++ b/leetcode_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2074B055-ACCC-4F43-8F18-D975FD799B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C729C15E-E9E9-4FEE-A4FE-EEE6DA723406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF86E260-3C89-4952-8307-E91E25D77E54}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
   <si>
     <t>Find the Difference</t>
   </si>
@@ -289,6 +289,24 @@
   </si>
   <si>
     <t>language</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray</t>
+  </si>
+  <si>
+    <t>maximum-subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/triangle-judgement</t>
+  </si>
+  <si>
+    <t>triangle-judgement</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/duplicate-emails</t>
+  </si>
+  <si>
+    <t>duplicate-emails</t>
   </si>
 </sst>
 </file>
@@ -687,11 +705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ACDA02-1675-4A48-BE6A-C1394834C3CA}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1482,6 +1500,66 @@
         <v>86</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>610</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>182</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D31" r:id="rId1" xr:uid="{FED7B22F-0CBF-4B7A-B70D-65E45450C72A}"/>
@@ -1492,8 +1570,10 @@
     <hyperlink ref="D36" r:id="rId6" xr:uid="{09187625-D0E4-43A0-8567-92946349EB05}"/>
     <hyperlink ref="D38" r:id="rId7" xr:uid="{BB3BBA01-0689-48F6-BDD4-0F393C8F7150}"/>
     <hyperlink ref="D39" r:id="rId8" xr:uid="{B53051B8-56D3-4473-B168-F938B298E132}"/>
+    <hyperlink ref="D40" r:id="rId9" xr:uid="{1441FC7A-66DB-44ED-A123-322947B8E95E}"/>
+    <hyperlink ref="D42" r:id="rId10" xr:uid="{BA8206B4-3DCF-4B4A-9FC3-5D2853A47C12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>